--- a/biology/Botanique/Toussaint-Pierre-Louis-Samuel_Castaing/Toussaint-Pierre-Louis-Samuel_Castaing.xlsx
+++ b/biology/Botanique/Toussaint-Pierre-Louis-Samuel_Castaing/Toussaint-Pierre-Louis-Samuel_Castaing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Toussaint-Pierre-Louis-Samuel Casting (né le 26 juin 1767 à Author-Du-Perche - mort le 13 décembre 1844 à Mamers), est un homme politique français.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Toussaint Casting, médecin, et de Jeanne de Laguette. Maître particulier des Eaux et forêts à Alençon, il devient commandant de la garde nationale du canton d'Alençon, puis adjudant général de la 1re légion du district d'Alençon en 1792.
 Le 18 novembre 1792, il est élu député suppléant du département de l'Orne à la Convention. Il n'est admis à siéger, parmi les modérés, que le 18 novembre 1792, en remplacement de Dufriche-Valazé, condamné à mort et exécuté.
@@ -547,7 +561,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Toussaint-Pierre-Louis-Samuel Castaing », dans Adolphe Robert et Gaston Cougny, Dictionnaire des parlementaires français, Edgar Bourloton, 1889-1891 [détail de l’édition]
 « Cote LH/444/8 », base Léonore, ministère français de la Culture</t>
